--- a/routes/test.xlsx
+++ b/routes/test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>张钰坤</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>kfzx</t>
+  </si>
+  <si>
+    <t>章帅广</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kfzx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -555,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -877,6 +889,20 @@
       </c>
       <c r="B29" t="s">
         <v>55</v>
+      </c>
+      <c r="C29">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
